--- a/Documents/EProjectPlan.xlsx
+++ b/Documents/EProjectPlan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>6.2 Fixing minor bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3 Rewamp saving script </t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
   </si>
 </sst>
 </file>
@@ -398,156 +404,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -606,6 +462,156 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -620,17 +626,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:B9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:B9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <tableColumns count="2">
-    <tableColumn id="1" name="Column1" dataDxfId="23"/>
-    <tableColumn id="2" name="Column2" dataDxfId="22"/>
+    <tableColumn id="1" name="Column1" dataDxfId="8"/>
+    <tableColumn id="2" name="Column2" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A12:G45" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A12:G45" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A12:G45">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -923,7 +929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -933,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -977,6 +983,9 @@
         <v>15</v>
       </c>
       <c r="E4" s="22"/>
+      <c r="F4" s="14">
+        <v>43997</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
@@ -989,12 +998,17 @@
         <v>16</v>
       </c>
       <c r="E5" s="22"/>
+      <c r="F5" s="14">
+        <v>44043</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
@@ -1667,57 +1681,74 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75">
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75">
+    <row r="49" spans="1:7">
+      <c r="B49" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" s="14">
+        <v>44038</v>
+      </c>
+      <c r="E49" s="14">
+        <v>44038</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75">
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75">
+    <row r="51" spans="1:7" ht="15.75">
       <c r="B51" s="7"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75">
+    <row r="52" spans="1:7" ht="15.75">
       <c r="A52" s="5"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75">
+    <row r="53" spans="1:7" ht="15.75">
       <c r="B53" s="7"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75">
+    <row r="54" spans="1:7" ht="15.75">
       <c r="B54" s="7"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75">
+    <row r="55" spans="1:7" ht="15.75">
       <c r="B55" s="7"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75">
+    <row r="56" spans="1:7" ht="15.75">
       <c r="B56" s="7"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75">
+    <row r="57" spans="1:7" ht="15.75">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75">
+    <row r="58" spans="1:7" ht="15.75">
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75">
+    <row r="59" spans="1:7" ht="15.75">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75">
+    <row r="60" spans="1:7" ht="15.75">
       <c r="A60" s="5"/>
       <c r="B60" s="7"/>
       <c r="C60" s="9"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75">
+    <row r="61" spans="1:7" ht="15.75">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75">
+    <row r="62" spans="1:7" ht="15.75">
       <c r="B62" s="6"/>
     </row>
-    <row r="63" spans="1:3" ht="15.75">
+    <row r="63" spans="1:7" ht="15.75">
       <c r="B63" s="6"/>
     </row>
-    <row r="64" spans="1:3" ht="15.75">
+    <row r="64" spans="1:7" ht="15.75">
       <c r="B64" s="6"/>
     </row>
     <row r="65" spans="2:3" ht="15.75">
@@ -1792,50 +1823,61 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G14 G17:G30 G32:G45">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
       <formula>"COMPLETED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
       <formula>"PAUSED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"COMPLETED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"PAUSED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"COMPLETED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>"PAUSED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"COMPLETED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"PAUSED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"COMPLETED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"PAUSED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"COMPLETED"</formula>
     </cfRule>
@@ -1847,7 +1889,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G15 G17:G45 G47:G48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G15 G17:G45 G47:G49">
       <formula1>"IN PROGRESS, PAUSED, COMPLETED"</formula1>
     </dataValidation>
   </dataValidations>
